--- a/ALR1-1.xlsx
+++ b/ALR1-1.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17910" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17910" windowHeight="6720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="alr 1" sheetId="1" r:id="rId1"/>
+    <sheet name="alr 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="152">
   <si>
     <t>BENE_MBI_ID</t>
   </si>
@@ -474,6 +475,12 @@
   </si>
   <si>
     <t>columns in config</t>
+  </si>
+  <si>
+    <t>MASTER_ID</t>
+  </si>
+  <si>
+    <t>B_EM_LINE_CNT_T</t>
   </si>
 </sst>
 </file>
@@ -793,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,4 +1561,72 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ALR1-1.xlsx
+++ b/ALR1-1.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17910" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17910" windowHeight="6720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="alr 1" sheetId="1" r:id="rId1"/>
     <sheet name="alr 2" sheetId="2" r:id="rId2"/>
+    <sheet name="alr 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="153">
   <si>
     <t>BENE_MBI_ID</t>
   </si>
@@ -481,6 +482,9 @@
   </si>
   <si>
     <t>B_EM_LINE_CNT_T</t>
+  </si>
+  <si>
+    <t>REV_LINE_CNT</t>
   </si>
 </sst>
 </file>
@@ -1567,7 +1571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1629,4 +1633,72 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ALR1-1.xlsx
+++ b/ALR1-1.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17910" windowHeight="6720" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17910" windowHeight="6720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="alr 1" sheetId="1" r:id="rId1"/>
     <sheet name="alr 2" sheetId="2" r:id="rId2"/>
     <sheet name="alr 3" sheetId="3" r:id="rId3"/>
+    <sheet name="alr 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="155">
   <si>
     <t>BENE_MBI_ID</t>
   </si>
@@ -485,6 +486,12 @@
   </si>
   <si>
     <t>REV_LINE_CNT</t>
+  </si>
+  <si>
+    <t>NPI_USED</t>
+  </si>
+  <si>
+    <t>PCS_COUNT</t>
   </si>
 </sst>
 </file>
@@ -804,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1639,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,4 +1708,77 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ALR1-1.xlsx
+++ b/ALR1-1.xlsx
@@ -9,13 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17910" windowHeight="6720" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17910" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="alr 1" sheetId="1" r:id="rId1"/>
     <sheet name="alr 2" sheetId="2" r:id="rId2"/>
     <sheet name="alr 3" sheetId="3" r:id="rId3"/>
     <sheet name="alr 4" sheetId="4" r:id="rId4"/>
+    <sheet name="alr 5" sheetId="5" r:id="rId5"/>
+    <sheet name="alr 6" sheetId="6" r:id="rId6"/>
+    <sheet name="alr 7" sheetId="7" r:id="rId7"/>
+    <sheet name="expu-0" sheetId="8" r:id="rId8"/>
+    <sheet name="expu-1" sheetId="9" r:id="rId9"/>
+    <sheet name="expu-2" sheetId="10" r:id="rId10"/>
+    <sheet name="expu-3" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="282">
   <si>
     <t>BENE_MBI_ID</t>
   </si>
@@ -492,19 +499,489 @@
   </si>
   <si>
     <t>PCS_COUNT</t>
+  </si>
+  <si>
+    <t>a3632 does not have this file</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Table of Contents</t>
+  </si>
+  <si>
+    <t>Claims-Based Beneficiary Assignment Window</t>
+  </si>
+  <si>
+    <t>10/01/2019 - 09/30/2020</t>
+  </si>
+  <si>
+    <t>Shared Savings Program ACO Report Period</t>
+  </si>
+  <si>
+    <t>01/01/2021 - 12/31/2021</t>
+  </si>
+  <si>
+    <t>National Assignable FFS Report Period</t>
+  </si>
+  <si>
+    <t>National Assignable FFS Year-to-Date Report Period</t>
+  </si>
+  <si>
+    <t>Voluntary Alignment End Date</t>
+  </si>
+  <si>
+    <t>09/30/2020</t>
+  </si>
+  <si>
+    <t>Claims for Expenditure and Utilization Measures Processed as of</t>
+  </si>
+  <si>
+    <t>01/07/2022</t>
+  </si>
+  <si>
+    <t>Claims Completion Factor</t>
+  </si>
+  <si>
+    <t>1.072</t>
+  </si>
+  <si>
+    <t>ACO Track</t>
+  </si>
+  <si>
+    <t>Track 1+</t>
+  </si>
+  <si>
+    <t>ACOs Included in All MSSP ACOs Column</t>
+  </si>
+  <si>
+    <t>ACOs under prospective assignment</t>
+  </si>
+  <si>
+    <t>Performance Year Participant List on which Report is Based</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>Date Produced</t>
+  </si>
+  <si>
+    <t>01/20/2022</t>
+  </si>
+  <si>
+    <t>Expenditure Truncation Thresholds/Factors, Including COVID-19 Episodes (Based on National Assignable FFS Population)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESRD </t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Aged/Dual</t>
+  </si>
+  <si>
+    <t>Aged/Non-Dual</t>
+  </si>
+  <si>
+    <t>Expenditure Truncation Thresholds/Factors, Excluding COVID-19 Episodes (Based on National Assignable FFS Population)</t>
+  </si>
+  <si>
+    <t>example from a3632, spreadsheet data rows 1 - 23, sheet name: Parameters</t>
+  </si>
+  <si>
+    <t>ACO-Specific[1]</t>
+  </si>
+  <si>
+    <t>All MSSP ACOs[2]</t>
+  </si>
+  <si>
+    <t>National Assignable FFS 12-Month[3]</t>
+  </si>
+  <si>
+    <t>National Assignable FFS Year to Date[4]</t>
+  </si>
+  <si>
+    <t>Number of ACOs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     151</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Total Assigned Beneficiaries</t>
+  </si>
+  <si>
+    <t>Person Years by Assigned Beneficiary Medicare Enrollment Type[5]</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>End Stage Renal Disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disabled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aged/Dual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aged/Non-Dual </t>
+  </si>
+  <si>
+    <t>Total Expenditures by Assigned Beneficiary Medicare Enrollment Type[6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Assigned Beneficiaries Who Declined Data Sharing[7]</t>
+  </si>
+  <si>
+    <t>Person Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Expenditures per Assigned Beneficiary </t>
+  </si>
+  <si>
+    <t>Assigned Beneficiaries with Non-Claims Based Payments[8]</t>
+  </si>
+  <si>
+    <t>Total Non-Claims Based Payments per Assigned Beneficiary</t>
+  </si>
+  <si>
+    <t>Component Expenditures per Assigned Beneficiary[9]</t>
+  </si>
+  <si>
+    <t>Hospital Inpatient Facility, Total</t>
+  </si>
+  <si>
+    <t>Short-Term Stay Hospital</t>
+  </si>
+  <si>
+    <t>Long-Term Stay Hospital</t>
+  </si>
+  <si>
+    <t>Rehabilitation Hospital or Unit</t>
+  </si>
+  <si>
+    <t>Psychiatric Hospital or Unit</t>
+  </si>
+  <si>
+    <t>Skilled Nursing Facility or Unit</t>
+  </si>
+  <si>
+    <t>Outpatient Facility</t>
+  </si>
+  <si>
+    <t>Hospital Outpatient Department (including CAH)</t>
+  </si>
+  <si>
+    <t>Outpatient Dialysis Facility</t>
+  </si>
+  <si>
+    <t>Part B Physician/Supplier (Carrier)</t>
+  </si>
+  <si>
+    <t>Evaluation and Management</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>Imaging</t>
+  </si>
+  <si>
+    <t>Laboratory and Other Tests</t>
+  </si>
+  <si>
+    <t>Part B Drugs</t>
+  </si>
+  <si>
+    <t>Ambulance</t>
+  </si>
+  <si>
+    <t>Home Health Agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durable Medical Equipment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospice </t>
+  </si>
+  <si>
+    <t>Substance Abuse Treatment Services</t>
+  </si>
+  <si>
+    <t>Transition of Care/Care Coordination Utilization[10]</t>
+  </si>
+  <si>
+    <t>30-Day Post-Discharge Provider Visits Per 1,000 Discharges</t>
+  </si>
+  <si>
+    <t>Ambulatory Care Sensitive Conditions Discharge Rates Per 1,000 Beneficiaries</t>
+  </si>
+  <si>
+    <t>Chronic Obstructive Pulmonary Disease or Asthma</t>
+  </si>
+  <si>
+    <t>Congestive Heart Failure</t>
+  </si>
+  <si>
+    <r>
+      <t>Additional Utilization Rates</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Per 1,000 Person Years)[11]</t>
+    </r>
+  </si>
+  <si>
+    <t>Hospital Discharges, Total</t>
+  </si>
+  <si>
+    <t>Emergency Department Visits</t>
+  </si>
+  <si>
+    <t>Emergency Department Visits That Lead to Hospitalizations</t>
+  </si>
+  <si>
+    <t>Observation Stays[12]</t>
+  </si>
+  <si>
+    <t>Computed Tomography (CT) Events[13]</t>
+  </si>
+  <si>
+    <t>Magnetic Resonance Imaging (MRI) Events[13]</t>
+  </si>
+  <si>
+    <t>Primary Care Services</t>
+  </si>
+  <si>
+    <t>With a Primary Care Physician</t>
+  </si>
+  <si>
+    <t>With a Specialist Physician</t>
+  </si>
+  <si>
+    <t>With a Nurse Practitioner/Physician Assistant/Clinical Nurse Specialist</t>
+  </si>
+  <si>
+    <t>With a FQHC/RHC</t>
+  </si>
+  <si>
+    <t>example from a3632, spreadsheet data rows 7 - 69, sheet name:  Table_1-Aggregate_EU_Report</t>
+  </si>
+  <si>
+    <t>Benchmark Year 3</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 </t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Regional Assignable FFS (12-Month) Expenditures ($)[1]</t>
+  </si>
+  <si>
+    <t>ESRD</t>
+  </si>
+  <si>
+    <t>example from a3632, spreadsheet data rows 7 - 12, sheet name:  Table 2 - Regional Expenditures</t>
+  </si>
+  <si>
+    <t>example from a3632, spreadsheet data rows 8 -27, sheet name:  Table 3 - SNF Report</t>
+  </si>
+  <si>
+    <t>ACO-Specific Stays at Affiliated SNFs[2]</t>
+  </si>
+  <si>
+    <t>ACO-Specific Stays at Non-Affiliated SNFs</t>
+  </si>
+  <si>
+    <t>All MSSP ACOs[4]</t>
+  </si>
+  <si>
+    <t>National Assignable FFS 12-Month[5]</t>
+  </si>
+  <si>
+    <t>National Assignable FFS Year to Date[6]</t>
+  </si>
+  <si>
+    <t>With Prior 3-Day  Hospital Stay[3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Without Prior 3-Day Hospital Stay[3]</t>
+  </si>
+  <si>
+    <t>Number of SNF Stays</t>
+  </si>
+  <si>
+    <t>Admissions[7]</t>
+  </si>
+  <si>
+    <t>Discharges[8]</t>
+  </si>
+  <si>
+    <t>Admission and Discharge[9]</t>
+  </si>
+  <si>
+    <t>Total Stays[10]</t>
+  </si>
+  <si>
+    <t>Rate per 1,000 Person Years</t>
+  </si>
+  <si>
+    <t>Utilization Days, Total Stays[11]</t>
+  </si>
+  <si>
+    <t>Beneficiaries with a SNF Stay, Total Stays</t>
+  </si>
+  <si>
+    <t>Number[12]</t>
+  </si>
+  <si>
+    <t>Percentage[13]</t>
+  </si>
+  <si>
+    <t>Number of Facilities or Units[14]</t>
+  </si>
+  <si>
+    <t>Stays with Discharge during Report Period</t>
+  </si>
+  <si>
+    <t>Length of Stay[15]</t>
+  </si>
+  <si>
+    <t>Payment per Stay[16]</t>
+  </si>
+  <si>
+    <t>Payment per Day[17]</t>
+  </si>
+  <si>
+    <t>30-Day Admission Rate After SNF Discharge</t>
+  </si>
+  <si>
+    <t>To a Hospital[18]</t>
+  </si>
+  <si>
+    <t>To a SNF[19]</t>
+  </si>
+  <si>
+    <t>columns in file  a3632</t>
+  </si>
+  <si>
+    <t>columns in file a3229</t>
+  </si>
+  <si>
+    <t>ASSIGNED_BEFORE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -515,7 +992,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -523,12 +1000,197 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,767 +1471,1884 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D149"/>
+  <dimension ref="B1:F150"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>148</v>
+        <v>279</v>
       </c>
       <c r="D1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="F30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="F31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="F37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="F38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="F40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="F41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="F42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="F43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="F44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="F45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="F46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="F47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="F48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="F49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="F50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+      <c r="F51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="F52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+      <c r="F53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+      <c r="F54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="F55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="F56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+      <c r="F57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+      <c r="F58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+      <c r="F59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+      <c r="F60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+      <c r="F61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+      <c r="F62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+      <c r="F63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+      <c r="F64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+      <c r="F65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+      <c r="F66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+      <c r="F67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+      <c r="F68" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+      <c r="F69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+      <c r="F70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+      <c r="F71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+      <c r="F72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+      <c r="F73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+      <c r="F74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+      <c r="F75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+      <c r="F76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+      <c r="F77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+      <c r="F78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+      <c r="F79" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+      <c r="F80" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+      <c r="F81" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+      <c r="F82" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+      <c r="F83" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+      <c r="F84" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+      <c r="F85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+      <c r="F86" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+      <c r="F87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+      <c r="F88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+      <c r="F89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+      <c r="F90" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+      <c r="F91" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+      <c r="F92" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+      <c r="F93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+      <c r="F94" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+      <c r="F95" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+      <c r="F96" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+      <c r="F97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+      <c r="F98" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+      <c r="F99" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+      <c r="F100" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+      <c r="F101" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+      <c r="F102" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
+      <c r="F103" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+      <c r="F104" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+      <c r="F105" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+      <c r="F106" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+      <c r="F107" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+      <c r="F108" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
+      <c r="F109" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
+      <c r="F110" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
+      <c r="F111" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
+      <c r="F112" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+      <c r="F113" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
+      <c r="F114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+      <c r="F115" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
+      <c r="F116" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
+      <c r="F117" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
+      <c r="F118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
+      <c r="F119" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
+      <c r="F120" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
+      <c r="F121" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
+      <c r="F122" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
+      <c r="F123" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
+      <c r="F124" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
+      <c r="F125" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
+      <c r="F126" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
+      <c r="F127" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
+      <c r="F128" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
+      <c r="F129" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
+      <c r="F130" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
+      <c r="F131" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
+      <c r="F132" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
+      <c r="F133" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
+      <c r="F134" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
+      <c r="F135" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
+      <c r="F136" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
+      <c r="F137" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
+      <c r="F138" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
+      <c r="F139" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
+      <c r="F140" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
+      <c r="F141" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
+      <c r="F142" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
+      <c r="F143" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
+      <c r="F144" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
+      <c r="F145" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
+      <c r="F146" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
+      <c r="F147" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
+      <c r="F148" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
+      <c r="F149" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
         <v>147</v>
       </c>
+      <c r="F150" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="88.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="14">
+        <v>91534.108407568507</v>
+      </c>
+      <c r="D5" s="14">
+        <v>90442.042611406301</v>
+      </c>
+      <c r="E5" s="14">
+        <v>92499.038177416602</v>
+      </c>
+      <c r="F5" s="14">
+        <v>91723.504087139605</v>
+      </c>
+      <c r="G5" s="14">
+        <v>92418.753643101503</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="14">
+        <v>11465.197922342801</v>
+      </c>
+      <c r="D6" s="14">
+        <v>12054.1532417284</v>
+      </c>
+      <c r="E6" s="14">
+        <v>12985.9332298396</v>
+      </c>
+      <c r="F6" s="14">
+        <v>12929.2586079058</v>
+      </c>
+      <c r="G6" s="14">
+        <v>12995.744581740901</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="14">
+        <v>20499.6913084607</v>
+      </c>
+      <c r="D7" s="14">
+        <v>22725.582381988901</v>
+      </c>
+      <c r="E7" s="14">
+        <v>22997.454546743302</v>
+      </c>
+      <c r="F7" s="14">
+        <v>22811.4513656895</v>
+      </c>
+      <c r="G7" s="14">
+        <v>22560.3727980125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="14">
+        <v>11219.5454997739</v>
+      </c>
+      <c r="D8" s="14">
+        <v>11175.955003876001</v>
+      </c>
+      <c r="E8" s="14">
+        <v>12024.1303140216</v>
+      </c>
+      <c r="F8" s="14">
+        <v>12157.006447343299</v>
+      </c>
+      <c r="G8" s="14">
+        <v>12423.955585620301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J23"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="41"/>
+      <c r="C3" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="42"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+    </row>
+    <row r="5" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B6" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="14">
+        <v>968</v>
+      </c>
+      <c r="D6" s="14">
+        <v>103</v>
+      </c>
+      <c r="E6" s="14">
+        <v>2</v>
+      </c>
+      <c r="F6" s="14">
+        <v>101</v>
+      </c>
+      <c r="G6" s="14">
+        <v>865</v>
+      </c>
+      <c r="H6" s="14">
+        <v>662</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1380466</v>
+      </c>
+      <c r="J6" s="14">
+        <v>1259305</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="14">
+        <v>942</v>
+      </c>
+      <c r="D7" s="14">
+        <v>104</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2</v>
+      </c>
+      <c r="F7" s="14">
+        <v>102</v>
+      </c>
+      <c r="G7" s="14">
+        <v>838</v>
+      </c>
+      <c r="H7" s="14">
+        <v>633</v>
+      </c>
+      <c r="I7" s="14">
+        <v>1318612</v>
+      </c>
+      <c r="J7" s="14">
+        <v>1231123</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="14">
+        <v>859</v>
+      </c>
+      <c r="D8" s="14">
+        <v>94</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2</v>
+      </c>
+      <c r="F8" s="14">
+        <v>92</v>
+      </c>
+      <c r="G8" s="14">
+        <v>765</v>
+      </c>
+      <c r="H8" s="14">
+        <v>591</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1206283</v>
+      </c>
+      <c r="J8" s="14">
+        <v>1112767</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1052</v>
+      </c>
+      <c r="D9" s="14">
+        <v>113</v>
+      </c>
+      <c r="E9" s="14">
+        <v>2</v>
+      </c>
+      <c r="F9" s="14">
+        <v>111</v>
+      </c>
+      <c r="G9" s="14">
+        <v>939</v>
+      </c>
+      <c r="H9" s="14">
+        <v>708</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1504007</v>
+      </c>
+      <c r="J9" s="14">
+        <v>1387802</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="14">
+        <v>52.2346678496178</v>
+      </c>
+      <c r="D11" s="14">
+        <v>5.7668847732062103</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.110901630253966</v>
+      </c>
+      <c r="F11" s="14">
+        <v>5.65598314295225</v>
+      </c>
+      <c r="G11" s="14">
+        <v>46.4677830764116</v>
+      </c>
+      <c r="H11" s="14">
+        <v>48.511233771282299</v>
+      </c>
+      <c r="I11" s="14">
+        <v>52.503262165532398</v>
+      </c>
+      <c r="J11" s="14">
+        <v>53.1431983988262</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1626.92691582568</v>
+      </c>
+      <c r="D12" s="14">
+        <v>173.94920705334499</v>
+      </c>
+      <c r="E12" s="14">
+        <v>4.1588111345237104</v>
+      </c>
+      <c r="F12" s="14">
+        <v>169.79039591882099</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1452.9777087723301</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1248.6031208459101</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1486.5616305242099</v>
+      </c>
+      <c r="J12" s="14">
+        <v>1431.07591158013</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="14">
+        <v>792</v>
+      </c>
+      <c r="D14" s="14">
+        <v>99</v>
+      </c>
+      <c r="E14" s="14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="14">
+        <v>98</v>
+      </c>
+      <c r="G14" s="14">
+        <v>715</v>
+      </c>
+      <c r="H14" s="14">
+        <v>532</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1113199</v>
+      </c>
+      <c r="J14" s="14">
+        <v>1036653</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="23">
+        <v>4.2896604018848503</v>
+      </c>
+      <c r="D15" s="23">
+        <v>0.53620755023560596</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1.08324757623355E-2</v>
+      </c>
+      <c r="F15" s="23">
+        <v>0.53079131235443899</v>
+      </c>
+      <c r="G15" s="23">
+        <v>3.8726100850349301</v>
+      </c>
+      <c r="H15" s="23">
+        <v>4.0234167110165</v>
+      </c>
+      <c r="I15" s="23">
+        <v>4.2949689478713298</v>
+      </c>
+      <c r="J15" s="23">
+        <v>4.36634462555139</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" s="14">
+        <v>77</v>
+      </c>
+      <c r="D16" s="14">
+        <v>5</v>
+      </c>
+      <c r="E16" s="14">
+        <v>5</v>
+      </c>
+      <c r="F16" s="14">
+        <v>5</v>
+      </c>
+      <c r="G16" s="14">
+        <v>72</v>
+      </c>
+      <c r="H16" s="14">
+        <v>114</v>
+      </c>
+      <c r="I16" s="14">
+        <v>16351</v>
+      </c>
+      <c r="J16" s="14">
+        <v>16345</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18" s="35">
+        <v>32.2027600849257</v>
+      </c>
+      <c r="D18" s="35">
+        <v>31.923076923076898</v>
+      </c>
+      <c r="E18" s="35">
+        <v>37.5</v>
+      </c>
+      <c r="F18" s="35">
+        <v>31.813725490196099</v>
+      </c>
+      <c r="G18" s="14">
+        <v>32.237470167064401</v>
+      </c>
+      <c r="H18" s="14">
+        <v>26.313351498637601</v>
+      </c>
+      <c r="I18" s="14">
+        <v>27.929840620288601</v>
+      </c>
+      <c r="J18" s="14">
+        <v>27.322944173734101</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="35">
+        <v>14426.674543524299</v>
+      </c>
+      <c r="D19" s="35">
+        <v>13752.2854807692</v>
+      </c>
+      <c r="E19" s="35">
+        <v>15269.995000000001</v>
+      </c>
+      <c r="F19" s="35">
+        <v>13722.5264705882</v>
+      </c>
+      <c r="G19" s="14">
+        <v>14510.3696062051</v>
+      </c>
+      <c r="H19" s="14">
+        <v>13408.491531707199</v>
+      </c>
+      <c r="I19" s="14">
+        <v>15202.151691507201</v>
+      </c>
+      <c r="J19" s="14">
+        <v>15033.522197904</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" s="35">
+        <v>447.99497016647098</v>
+      </c>
+      <c r="D20" s="35">
+        <v>430.79448493975798</v>
+      </c>
+      <c r="E20" s="35">
+        <v>407.19986666666699</v>
+      </c>
+      <c r="F20" s="35">
+        <v>431.33981510015298</v>
+      </c>
+      <c r="G20" s="14">
+        <v>450.10881843419997</v>
+      </c>
+      <c r="H20" s="14">
+        <v>518.58802828498597</v>
+      </c>
+      <c r="I20" s="14">
+        <v>544.29783177724698</v>
+      </c>
+      <c r="J20" s="14">
+        <v>550.21604195773</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="14">
+        <v>31.634819532908701</v>
+      </c>
+      <c r="D22" s="14">
+        <v>25</v>
+      </c>
+      <c r="E22" s="14">
+        <v>50</v>
+      </c>
+      <c r="F22" s="14">
+        <v>24.509803921568601</v>
+      </c>
+      <c r="G22" s="14">
+        <v>32.4582338902148</v>
+      </c>
+      <c r="H22" s="14">
+        <v>28.742514970059901</v>
+      </c>
+      <c r="I22" s="14">
+        <v>26.7211730151725</v>
+      </c>
+      <c r="J22" s="14">
+        <v>27.438247154821401</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="14">
+        <v>17.303609341825901</v>
+      </c>
+      <c r="D23" s="14">
+        <v>18.269230769230798</v>
+      </c>
+      <c r="E23" s="14">
+        <v>50</v>
+      </c>
+      <c r="F23" s="27">
+        <v>17.647058823529399</v>
+      </c>
+      <c r="G23" s="27">
+        <v>17.183770883054901</v>
+      </c>
+      <c r="H23" s="14">
+        <v>16.6270783847981</v>
+      </c>
+      <c r="I23" s="27">
+        <v>17.224893853388298</v>
+      </c>
+      <c r="J23" s="27">
+        <v>16.729014464689101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1714,7 +3493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1781,4 +3560,1296 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="139.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="37"/>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="38"/>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="9">
+        <v>444046.74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="9">
+        <v>158097.75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="9">
+        <v>215740.37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="9">
+        <v>137436.65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="9">
+        <v>436782.96</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="9">
+        <v>152996.98000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="9">
+        <v>205783.75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="9">
+        <v>132413.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4" location="TOC!A1" display="Table of Contents"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="87.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:6" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="14">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="14">
+        <v>18463</v>
+      </c>
+      <c r="D5" s="14">
+        <v>13091</v>
+      </c>
+      <c r="E5" s="14">
+        <v>25918674</v>
+      </c>
+      <c r="F5" s="14">
+        <v>23741896</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="189" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="14">
+        <v>18033.9999999998</v>
+      </c>
+      <c r="D7" s="14">
+        <v>12800.666666666501</v>
+      </c>
+      <c r="E7" s="16">
+        <v>24707954.166560002</v>
+      </c>
+      <c r="F7" s="14">
+        <v>22831608.6666</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="14">
+        <v>116.416666666667</v>
+      </c>
+      <c r="D8" s="14">
+        <v>88.25</v>
+      </c>
+      <c r="E8" s="14">
+        <v>221248.33332999999</v>
+      </c>
+      <c r="F8" s="14">
+        <v>199679.41667000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1666.8333333333301</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1135</v>
+      </c>
+      <c r="E9" s="14">
+        <v>2728186.5</v>
+      </c>
+      <c r="F9" s="14">
+        <v>2488608.4166600001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="14">
+        <v>833.49999999999704</v>
+      </c>
+      <c r="D10" s="14">
+        <v>833.49999999999704</v>
+      </c>
+      <c r="E10" s="14">
+        <v>2088861.9166600001</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1913351.5833300001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="14">
+        <v>15417.2499999998</v>
+      </c>
+      <c r="D11" s="14">
+        <v>10437.166666666601</v>
+      </c>
+      <c r="E11" s="14">
+        <v>19669657.41657</v>
+      </c>
+      <c r="F11" s="14">
+        <v>18229969.249930002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="14">
+        <v>13925.0621059725</v>
+      </c>
+      <c r="D13" s="14">
+        <v>11959.195562614899</v>
+      </c>
+      <c r="E13" s="14">
+        <v>12824.702880000001</v>
+      </c>
+      <c r="F13" s="14">
+        <v>12845.10814</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="14">
+        <v>101311.438743822</v>
+      </c>
+      <c r="D14" s="14">
+        <v>90558.597569736507</v>
+      </c>
+      <c r="E14" s="14">
+        <v>90435.48328</v>
+      </c>
+      <c r="F14" s="14">
+        <v>92232.348259999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="14">
+        <v>12268.4046494708</v>
+      </c>
+      <c r="D15" s="14">
+        <v>11317.625163598101</v>
+      </c>
+      <c r="E15" s="14">
+        <v>12778.22098</v>
+      </c>
+      <c r="F15" s="14">
+        <v>12234.785239999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="14">
+        <v>19669.371979555999</v>
+      </c>
+      <c r="D16" s="14">
+        <v>18533.758290039499</v>
+      </c>
+      <c r="E16" s="14">
+        <v>20022.228859999999</v>
+      </c>
+      <c r="F16" s="14">
+        <v>19769.353920000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="14">
+        <v>13133.757490073</v>
+      </c>
+      <c r="D17" s="14">
+        <v>11072.257499269601</v>
+      </c>
+      <c r="E17" s="14">
+        <v>11193.811110000001</v>
+      </c>
+      <c r="F17" s="14">
+        <v>11332.12371</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="14">
+        <v>165.833333333333</v>
+      </c>
+      <c r="D19" s="14">
+        <v>184.666666666667</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="14">
+        <v>13899.2275233768</v>
+      </c>
+      <c r="D20" s="14">
+        <v>12219.297765232999</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14">
+        <v>2746118.8333299998</v>
+      </c>
+      <c r="F22" s="14">
+        <v>2628583.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="14">
+        <v>344.765039898233</v>
+      </c>
+      <c r="E23" s="14">
+        <v>345.79835000000003</v>
+      </c>
+      <c r="F23" s="14">
+        <v>359.55635000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="14">
+        <v>4391.7005880431498</v>
+      </c>
+      <c r="D25" s="14">
+        <v>3497.1186856528502</v>
+      </c>
+      <c r="E25" s="14">
+        <v>3730.5349900000001</v>
+      </c>
+      <c r="F25" s="14">
+        <v>3718.0899899999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="14">
+        <v>3596.6411225823699</v>
+      </c>
+      <c r="D26" s="14">
+        <v>3006.5384576542101</v>
+      </c>
+      <c r="E26" s="14">
+        <v>3281.4517799999999</v>
+      </c>
+      <c r="F26" s="14">
+        <v>3275.7818400000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="14">
+        <v>150.2624608813</v>
+      </c>
+      <c r="D27" s="14">
+        <v>63.652126644709902</v>
+      </c>
+      <c r="E27" s="14">
+        <v>90.169759999999997</v>
+      </c>
+      <c r="F27" s="14">
+        <v>94.232489999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="14">
+        <v>672.23674255369997</v>
+      </c>
+      <c r="D28" s="14">
+        <v>267.69893855365098</v>
+      </c>
+      <c r="E28" s="14">
+        <v>309.57731000000001</v>
+      </c>
+      <c r="F28" s="14">
+        <v>305.86908</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" s="14">
+        <v>24.2591414964329</v>
+      </c>
+      <c r="D29" s="14">
+        <v>50.256624114798697</v>
+      </c>
+      <c r="E29" s="14">
+        <v>83.499600000000001</v>
+      </c>
+      <c r="F29" s="14">
+        <v>80.580269999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="14">
+        <v>830.73617645041395</v>
+      </c>
+      <c r="D30" s="14">
+        <v>709.593105137046</v>
+      </c>
+      <c r="E30" s="14">
+        <v>931.95402999999999</v>
+      </c>
+      <c r="F30" s="14">
+        <v>912.92340999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" s="14">
+        <v>3445.9142029682098</v>
+      </c>
+      <c r="D31" s="14">
+        <v>2693.2596597065199</v>
+      </c>
+      <c r="E31" s="14">
+        <v>3018.8388199999999</v>
+      </c>
+      <c r="F31" s="14">
+        <v>2950.2806300000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="14">
+        <v>3174.28265837247</v>
+      </c>
+      <c r="D32" s="14">
+        <v>2315.4436152338299</v>
+      </c>
+      <c r="E32" s="14">
+        <v>2497.68597</v>
+      </c>
+      <c r="F32" s="14">
+        <v>2437.8949200000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="14">
+        <v>180.310565351375</v>
+      </c>
+      <c r="D33" s="14">
+        <v>179.322343337549</v>
+      </c>
+      <c r="E33" s="14">
+        <v>270.96104000000003</v>
+      </c>
+      <c r="F33" s="14">
+        <v>267.08938000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="14">
+        <v>4584.1592422323602</v>
+      </c>
+      <c r="D34" s="14">
+        <v>3965.0145152774198</v>
+      </c>
+      <c r="E34" s="14">
+        <v>4143.5975500000004</v>
+      </c>
+      <c r="F34" s="14">
+        <v>4130.68282</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" s="14">
+        <v>1603.0362438101399</v>
+      </c>
+      <c r="D35" s="14">
+        <v>1339.1451503820699</v>
+      </c>
+      <c r="E35" s="14">
+        <v>1393.9021299999999</v>
+      </c>
+      <c r="F35" s="14">
+        <v>1395.69013</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="14">
+        <v>921.47974334917001</v>
+      </c>
+      <c r="D36" s="14">
+        <v>1010.72909917011</v>
+      </c>
+      <c r="E36" s="14">
+        <v>1057.24136</v>
+      </c>
+      <c r="F36" s="14">
+        <v>1045.16626</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="14">
+        <v>254.75398463045499</v>
+      </c>
+      <c r="D37" s="14">
+        <v>261.529003984371</v>
+      </c>
+      <c r="E37" s="14">
+        <v>303.31637999999998</v>
+      </c>
+      <c r="F37" s="14">
+        <v>297.99689999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38" s="14">
+        <v>286.03162888463902</v>
+      </c>
+      <c r="D38" s="14">
+        <v>380.70400956699501</v>
+      </c>
+      <c r="E38" s="14">
+        <v>424.65593000000001</v>
+      </c>
+      <c r="F38" s="14">
+        <v>420.17701</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C39" s="14">
+        <v>1287.9271718597599</v>
+      </c>
+      <c r="D39" s="14">
+        <v>652.60905339778401</v>
+      </c>
+      <c r="E39" s="14">
+        <v>689.63445000000002</v>
+      </c>
+      <c r="F39" s="14">
+        <v>695.36348999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="14">
+        <v>116.111997953493</v>
+      </c>
+      <c r="D40" s="14">
+        <v>123.441469863715</v>
+      </c>
+      <c r="E40" s="14">
+        <v>147.46559999999999</v>
+      </c>
+      <c r="F40" s="14">
+        <v>150.81473</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C41" s="14">
+        <v>540.79231827067099</v>
+      </c>
+      <c r="D41" s="14">
+        <v>508.41675539392298</v>
+      </c>
+      <c r="E41" s="14">
+        <v>586.02007000000003</v>
+      </c>
+      <c r="F41" s="14">
+        <v>605.64579000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" s="14">
+        <v>325.78814010496598</v>
+      </c>
+      <c r="D42" s="14">
+        <v>305.35950754089498</v>
+      </c>
+      <c r="E42" s="14">
+        <v>322.45933000000002</v>
+      </c>
+      <c r="F42" s="14">
+        <v>328.25139999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C43" s="14">
+        <v>169.54688544305299</v>
+      </c>
+      <c r="D43" s="14">
+        <v>334.30012656140201</v>
+      </c>
+      <c r="E43" s="14">
+        <v>311.98088999999999</v>
+      </c>
+      <c r="F43" s="14">
+        <v>430.20996000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C44" s="14">
+        <v>174.83354428228299</v>
+      </c>
+      <c r="D44" s="14">
+        <v>208.18043088340099</v>
+      </c>
+      <c r="E44" s="14">
+        <v>314.5027</v>
+      </c>
+      <c r="F44" s="14">
+        <v>290.99705999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+    </row>
+    <row r="46" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" s="14">
+        <v>779.24762298470398</v>
+      </c>
+      <c r="D46" s="14">
+        <v>798.21517104610803</v>
+      </c>
+      <c r="E46" s="14">
+        <v>792.74600999999996</v>
+      </c>
+      <c r="F46" s="14">
+        <v>785.49442999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+    </row>
+    <row r="48" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" s="23">
+        <v>6.1550404790951196</v>
+      </c>
+      <c r="D48" s="23">
+        <v>3.5558654348963201</v>
+      </c>
+      <c r="E48" s="24">
+        <v>3.7644199999999999</v>
+      </c>
+      <c r="F48" s="24">
+        <v>3.7731499999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" s="23">
+        <v>21.958522790285301</v>
+      </c>
+      <c r="D49" s="23">
+        <v>14.3777347931418</v>
+      </c>
+      <c r="E49" s="24">
+        <v>14.13363</v>
+      </c>
+      <c r="F49" s="24">
+        <v>14.378220000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" s="14">
+        <v>334.75657092159702</v>
+      </c>
+      <c r="D51" s="14">
+        <v>261.40108859400902</v>
+      </c>
+      <c r="E51" s="14">
+        <v>270.23896999999999</v>
+      </c>
+      <c r="F51" s="14">
+        <v>270.25725999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="C52" s="14">
+        <v>297.49362315626399</v>
+      </c>
+      <c r="D52" s="14">
+        <v>242.33951057716601</v>
+      </c>
+      <c r="E52" s="14">
+        <v>248.39766</v>
+      </c>
+      <c r="F52" s="14">
+        <v>248.68462</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" s="14">
+        <v>4.0479095042697599</v>
+      </c>
+      <c r="D53" s="14">
+        <v>1.41621566941482</v>
+      </c>
+      <c r="E53" s="14">
+        <v>2.0291399999999999</v>
+      </c>
+      <c r="F53" s="14">
+        <v>2.19095</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" s="14">
+        <v>30.497948319840699</v>
+      </c>
+      <c r="D54" s="14">
+        <v>10.931291791840399</v>
+      </c>
+      <c r="E54" s="14">
+        <v>12.87913</v>
+      </c>
+      <c r="F54" s="14">
+        <v>12.76778</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" s="14">
+        <v>2.7170899412221701</v>
+      </c>
+      <c r="D55" s="14">
+        <v>3.9157545275912198</v>
+      </c>
+      <c r="E55" s="14">
+        <v>6.6735600000000002</v>
+      </c>
+      <c r="F55" s="14">
+        <v>6.3747199999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" s="14">
+        <v>631.25207940557505</v>
+      </c>
+      <c r="D56" s="14">
+        <v>585.58572447691699</v>
+      </c>
+      <c r="E56" s="14">
+        <v>624.07081000000005</v>
+      </c>
+      <c r="F56" s="14">
+        <v>590.91728000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C57" s="14">
+        <v>245.92436508816999</v>
+      </c>
+      <c r="D57" s="14">
+        <v>194.141195907737</v>
+      </c>
+      <c r="E57" s="14">
+        <v>195.88744</v>
+      </c>
+      <c r="F57" s="14">
+        <v>185.76426000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" s="14">
+        <v>66.818232228014594</v>
+      </c>
+      <c r="D58" s="14">
+        <v>39.3590888789643</v>
+      </c>
+      <c r="E58" s="14">
+        <v>40.73283</v>
+      </c>
+      <c r="F58" s="14">
+        <v>40.312669999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" s="14">
+        <v>872.740379283587</v>
+      </c>
+      <c r="D59" s="14">
+        <v>715.73757295230996</v>
+      </c>
+      <c r="E59" s="14">
+        <v>728.74710000000005</v>
+      </c>
+      <c r="F59" s="14">
+        <v>718.91763000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C60" s="14">
+        <v>287.40157480315298</v>
+      </c>
+      <c r="D60" s="14">
+        <v>239.44266516987699</v>
+      </c>
+      <c r="E60" s="14">
+        <v>258.09210999999999</v>
+      </c>
+      <c r="F60" s="14">
+        <v>249.9254</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C61" s="14">
+        <v>11197.072196961401</v>
+      </c>
+      <c r="D61" s="14">
+        <v>10243.7310833433</v>
+      </c>
+      <c r="E61" s="14">
+        <v>10700.06732</v>
+      </c>
+      <c r="F61" s="14">
+        <v>10608.96617</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C62" s="14">
+        <v>3303.3714095597602</v>
+      </c>
+      <c r="D62" s="14">
+        <v>3461.2480309382699</v>
+      </c>
+      <c r="E62" s="14">
+        <v>3505.1336700000002</v>
+      </c>
+      <c r="F62" s="14">
+        <v>3417.4462800000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C63" s="14">
+        <v>5958.4118886548404</v>
+      </c>
+      <c r="D63" s="14">
+        <v>4505.7203844143696</v>
+      </c>
+      <c r="E63" s="14">
+        <v>4511.9588700000004</v>
+      </c>
+      <c r="F63" s="14">
+        <v>4503.3254800000004</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="C64" s="14">
+        <v>1731.39625152492</v>
+      </c>
+      <c r="D64" s="14">
+        <v>1784.6088615645699</v>
+      </c>
+      <c r="E64" s="14">
+        <v>2055.0361499999999</v>
+      </c>
+      <c r="F64" s="14">
+        <v>2087.8997100000001</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C65" s="27">
+        <v>203.892647221917</v>
+      </c>
+      <c r="D65" s="27">
+        <v>99.072801339566297</v>
+      </c>
+      <c r="E65" s="27">
+        <v>627.93862999999999</v>
+      </c>
+      <c r="F65" s="27">
+        <v>600.29471000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ALR1-1.xlsx
+++ b/ALR1-1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17910" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17910" windowHeight="6720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="alr 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="290">
   <si>
     <t>BENE_MBI_ID</t>
   </si>
@@ -903,6 +903,30 @@
   </si>
   <si>
     <t>ASSIGNED_BEFORE</t>
+  </si>
+  <si>
+    <t>columns in file: a3229</t>
+  </si>
+  <si>
+    <t>PLUR_R05</t>
+  </si>
+  <si>
+    <t>AB_R01</t>
+  </si>
+  <si>
+    <t>HMO_R03</t>
+  </si>
+  <si>
+    <t>NO_US_R02</t>
+  </si>
+  <si>
+    <t>MDM_R04</t>
+  </si>
+  <si>
+    <t>NOFND_R06</t>
+  </si>
+  <si>
+    <t>VA_SELECTION_ONLY</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -3494,7 +3518,7 @@
   <dimension ref="B1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3564,17 +3588,88 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F1"/>
+  <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>282</v>
+      </c>
       <c r="F1" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3584,17 +3679,63 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F1"/>
+  <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>282</v>
+      </c>
       <c r="F1" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
